--- a/Mifos Automation Excels/Client/3022-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-2-ONTIME-SPEDUEDATE-FEE-FLAT-Regular-CASH-Makerepayment1.xlsx
+++ b/Mifos Automation Excels/Client/3022-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-2-ONTIME-SPEDUEDATE-FEE-FLAT-Regular-CASH-Makerepayment1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="5" r:id="rId1"/>
@@ -776,10 +776,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P8"/>
+  <dimension ref="A1:Q8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -797,12 +797,13 @@
     <col min="11" max="11" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" customWidth="1"/>
+    <col min="15" max="15" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -842,17 +843,18 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="1"/>
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="7">
@@ -878,8 +880,9 @@
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
       <c r="O2" s="6"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P2" s="6"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -917,14 +920,15 @@
       <c r="M3" s="6">
         <v>0</v>
       </c>
-      <c r="N3" s="6">
-        <v>0</v>
-      </c>
-      <c r="P3" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N3" s="6"/>
+      <c r="O3" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>2</v>
       </c>
@@ -960,14 +964,15 @@
       <c r="M4" s="6">
         <v>0</v>
       </c>
-      <c r="N4" s="6">
-        <v>0</v>
-      </c>
-      <c r="P4" s="6">
+      <c r="N4" s="6"/>
+      <c r="O4" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="6">
         <v>887.72</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>3</v>
       </c>
@@ -1003,14 +1008,15 @@
       <c r="M5" s="6">
         <v>0</v>
       </c>
-      <c r="N5" s="6">
-        <v>0</v>
-      </c>
-      <c r="P5" s="6">
+      <c r="N5" s="6"/>
+      <c r="O5" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="6">
         <v>987.72</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>4</v>
       </c>
@@ -1046,14 +1052,15 @@
       <c r="M6" s="6">
         <v>0</v>
       </c>
-      <c r="N6" s="6">
-        <v>0</v>
-      </c>
-      <c r="P6" s="6">
+      <c r="N6" s="6"/>
+      <c r="O6" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="6">
         <v>887.72</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>5</v>
       </c>
@@ -1089,14 +1096,15 @@
       <c r="M7" s="6">
         <v>0</v>
       </c>
-      <c r="N7" s="6">
-        <v>0</v>
-      </c>
-      <c r="P7" s="6">
+      <c r="N7" s="6"/>
+      <c r="O7" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="6">
         <v>887.72</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>6</v>
       </c>
@@ -1132,10 +1140,11 @@
       <c r="M8" s="6">
         <v>0</v>
       </c>
-      <c r="N8" s="6">
-        <v>0</v>
-      </c>
-      <c r="P8" s="6">
+      <c r="N8" s="6"/>
+      <c r="O8" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="6">
         <v>741.06</v>
       </c>
     </row>
@@ -1149,7 +1158,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
